--- a/dailyProgressReview.xlsx
+++ b/dailyProgressReview.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nirav\Desktop\Learning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nirav\Desktop\Learning\Qb_intern\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0823D7EC-D954-4015-B0C2-01C481EA83B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7DA8F74-0D6B-4BCF-A5A5-FF51E95D4088}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{FB36DC1C-70E8-4C06-8042-82AD01576F6D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="79">
   <si>
     <t>Date</t>
   </si>
@@ -238,6 +238,30 @@
   </si>
   <si>
     <t xml:space="preserve">Static Variables </t>
+  </si>
+  <si>
+    <t>Abstraction and Polymorphsim</t>
+  </si>
+  <si>
+    <t>instance variables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atm program </t>
+  </si>
+  <si>
+    <t>2.5hr</t>
+  </si>
+  <si>
+    <t>xyz.py</t>
+  </si>
+  <si>
+    <t>polymorphismInPython.py</t>
+  </si>
+  <si>
+    <t>IRCTC_clone</t>
+  </si>
+  <si>
+    <t>Used Indian rail api to show the data with StationName, ArrivalTime, DepartureTime, Distance of the train</t>
   </si>
 </sst>
 </file>
@@ -595,21 +619,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA33CD49-6715-40CC-B5BD-65481045CED4}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" customWidth="1"/>
-    <col min="5" max="5" width="64" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="51" customWidth="1"/>
+    <col min="3" max="4" width="28.28515625" customWidth="1"/>
+    <col min="5" max="5" width="64" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="51" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1062,6 +1085,66 @@
         <v>63</v>
       </c>
     </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>45812</v>
+      </c>
+      <c r="B22" s="1">
+        <v>20</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>45812</v>
+      </c>
+      <c r="B23" s="1">
+        <v>20</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>45812</v>
+      </c>
+      <c r="B24" s="1">
+        <v>20</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dailyProgressReview.xlsx
+++ b/dailyProgressReview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nirav\Desktop\Learning\Qb_intern\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7DA8F74-0D6B-4BCF-A5A5-FF51E95D4088}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B15F430-6BC9-431D-9183-82AECF4B0BC7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{FB36DC1C-70E8-4C06-8042-82AD01576F6D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="86">
   <si>
     <t>Date</t>
   </si>
@@ -262,6 +262,27 @@
   </si>
   <si>
     <t>Used Indian rail api to show the data with StationName, ArrivalTime, DepartureTime, Distance of the train</t>
+  </si>
+  <si>
+    <t>The quiz project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OOPS concepts </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ask the question and the user have to give the answer </t>
+  </si>
+  <si>
+    <t>quix_logic</t>
+  </si>
+  <si>
+    <t>Patterns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Learned about the pattern and done the list programs </t>
+  </si>
+  <si>
+    <t>star_pattern.ipynb</t>
   </si>
 </sst>
 </file>
@@ -297,13 +318,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -619,533 +646,599 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA33CD49-6715-40CC-B5BD-65481045CED4}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="4" width="28.28515625" customWidth="1"/>
-    <col min="5" max="5" width="64" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28" customWidth="1"/>
+    <col min="4" max="4" width="28.42578125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="53.5703125" style="2" customWidth="1"/>
     <col min="6" max="6" width="18.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="51" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>45782</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>45782</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>45783</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>45783</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>45783</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>5</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>45784</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>6</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>45784</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>7</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>45784</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>8</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>45785</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>9</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>45785</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <v>10</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>45785</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="2">
         <v>11</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="A13" s="3">
         <v>45785</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <v>12</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="A14" s="3">
         <v>45785</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="2">
         <v>13</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="D14" s="4"/>
+      <c r="E14" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="A15" s="3">
         <v>45786</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="2">
         <v>14</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="2" t="s">
         <v>50</v>
       </c>
+      <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="A16" s="3">
         <v>45786</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="2">
         <v>15</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="A17" s="3">
         <v>45786</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="2">
         <v>16</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="A18" s="3">
         <v>45786</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="2">
         <v>17</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="A19" s="3">
         <v>45811</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="2">
         <v>18</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="D19" s="4"/>
+      <c r="E19" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="A20" s="3">
         <v>45811</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="2">
         <v>19</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="A21" s="3">
         <v>45811</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="2">
         <v>20</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+      <c r="A22" s="3">
         <v>45812</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="2">
         <v>20</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
         <v>45812</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="2">
         <v>20</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="D23" s="4"/>
+      <c r="F23" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" s="2" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+      <c r="A24" s="3">
         <v>45812</v>
       </c>
-      <c r="B24" s="1">
-        <v>20</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="B24" s="2">
+        <v>21</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="D24" s="4"/>
+      <c r="E24" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" s="2" t="s">
         <v>77</v>
       </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>45813</v>
+      </c>
+      <c r="B25" s="2">
+        <v>22</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>45813</v>
+      </c>
+      <c r="B26" s="2">
+        <v>23</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2">
+        <v>34</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/dailyProgressReview.xlsx
+++ b/dailyProgressReview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nirav\Desktop\Learning\Qb_intern\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B15F430-6BC9-431D-9183-82AECF4B0BC7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648605C0-9842-4B6D-A9A9-3B8CA4E344D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{FB36DC1C-70E8-4C06-8042-82AD01576F6D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="88">
   <si>
     <t>Date</t>
   </si>
@@ -283,6 +283,12 @@
   </si>
   <si>
     <t>star_pattern.ipynb</t>
+  </si>
+  <si>
+    <t>used random module to create the program</t>
+  </si>
+  <si>
+    <t>passwordGenerator.py</t>
   </si>
 </sst>
 </file>
@@ -318,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -331,6 +337,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -646,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA33CD49-6715-40CC-B5BD-65481045CED4}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1228,14 +1237,41 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
+      <c r="A27" s="3">
+        <v>45814</v>
+      </c>
       <c r="B27" s="2">
         <v>34</v>
       </c>
-      <c r="C27" s="4"/>
+      <c r="C27" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="D27" s="4"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
+      <c r="E27" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>45814</v>
+      </c>
+      <c r="B28" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>45814</v>
+      </c>
+      <c r="B29" s="2">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
